--- a/KeyWordsFrameWork/src/cn/gloryroad/data/关键字驱动测试用例.xlsx
+++ b/KeyWordsFrameWork/src/cn/gloryroad/data/关键字驱动测试用例.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="13230" windowHeight="6855"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="12960" windowHeight="6855"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="发送邮件" sheetId="1" r:id="rId1"/>
+    <sheet name="测试用例集合" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:E13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
   <si>
     <t>测试用例序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -320,6 +320,102 @@
   </si>
   <si>
     <t>close_browser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit126MailHomePage01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestStep_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开浏览器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问126邮箱首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言首页上的关键字是否包含“二维码登录”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭浏览器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_browser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>navigate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assert_String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close_browser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.126.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendMail01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit126MailHomePage01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否运行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送一封带有附件的邮件给自己</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问126邮箱的首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -768,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -969,6 +1065,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1152,29 +1251,137 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
     <hyperlink ref="E10" r:id="rId2"/>
+    <hyperlink ref="E24" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KeyWordsFrameWork/src/cn/gloryroad/data/关键字驱动测试用例.xlsx
+++ b/KeyWordsFrameWork/src/cn/gloryroad/data/关键字驱动测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="12960" windowHeight="6855"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="17550" windowHeight="3435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="发送邮件" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E13"/>
+  <oleSize ref="A1:L11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
   <si>
     <t>测试用例序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -98,12 +98,6 @@
     <t>TestStep_10</t>
   </si>
   <si>
-    <t>TestStep_11</t>
-  </si>
-  <si>
-    <t>TestStep_12</t>
-  </si>
-  <si>
     <t>TestStep_13</t>
   </si>
   <si>
@@ -162,90 +156,240 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>等待写信页面上显示出“收件人”链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaitFor_Element</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在收件人输入框中输入收信人的邮件地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_recipients</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>testform1@126.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用工具类函数，将“c:\\a.log”字符串粘贴到文件上传的文件名输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paste_uploadFileName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c:\a.log</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按Enter键，开始上传附件文件到邮件系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>press_enter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在邮件标题框中输入邮件标题“这是一封测试邮件”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestStep_15</t>
+  </si>
+  <si>
+    <t>input_mailSubject</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击添加附件按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestStep_16</t>
+  </si>
+  <si>
+    <t>TestStep_17</t>
+  </si>
+  <si>
+    <t>TestStep_18</t>
+  </si>
+  <si>
+    <t>TestStep_19</t>
+  </si>
+  <si>
+    <t>TestStep_20</t>
+  </si>
+  <si>
+    <t>TestStep_21</t>
+  </si>
+  <si>
+    <t>等待4秒，等待完成上传附件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击发送邮件按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click_sendMailButton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待3秒，等待邮件发送完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待发送完成页面上显示出ID属性包含“succinfo”关键字的页面元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaitFor_Element</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendmailsuccesspage.succinfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言发送结果页面是否包含“发送成功”关键字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assert_String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭浏览器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit126MailHomePage01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestStep_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开浏览器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问126邮箱首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言首页上的关键字是否包含“二维码登录”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭浏览器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_browser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>navigate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assert_String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close_browser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.126.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendMail01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit126MailHomePage01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否运行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送一封带有附件的邮件给自己</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问126邮箱的首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>homepage.logoutlink</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hi，你好吗？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>click_writeLetterLink</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待写信页面上显示出“收件人”链接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WaitFor_Element</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在收件人输入框中输入收信人的邮件地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>input_recipients</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>testform1@126.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用工具类函数，将“c:\\a.log”字符串粘贴到文件上传的文件名输入框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>paste_uploadFileName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c:\a.log</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按Enter键，开始上传附件文件到邮件系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>press_enter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在邮件标题框中输入邮件标题“这是一封测试邮件”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestStep_15</t>
-  </si>
-  <si>
-    <t>按Tab键，将页面焦点从邮件标题输入框切换到邮件正文输入框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>input_mailSubject</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是一封测试邮件的标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>press_Tab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>paste_mailContent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是一封测试邮件的正文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单击添加附件按钮</t>
+    <t>homepage.writeLetterLink</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -253,169 +397,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TestStep_16</t>
-  </si>
-  <si>
-    <t>TestStep_17</t>
-  </si>
-  <si>
-    <t>TestStep_18</t>
-  </si>
-  <si>
-    <t>TestStep_19</t>
-  </si>
-  <si>
-    <t>TestStep_20</t>
-  </si>
-  <si>
-    <t>TestStep_21</t>
-  </si>
-  <si>
-    <t>等待4秒，等待完成上传附件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sleep</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单击发送邮件按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>click_sendMailButton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待3秒，等待邮件发送完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待发送完成页面上显示出ID属性包含“succinfo”关键字的页面元素</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WaitFor_Element</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendmailsuccesspage.succinfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>断言发送结果页面是否包含“发送成功”关键字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assert_String</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送成功11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭浏览器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>close_browser</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit126MailHomePage01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestStep_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开浏览器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问126邮箱首页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>断言首页上的关键字是否包含“二维码登录”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭浏览器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_browser</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>navigate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assert_String</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>close_browser</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ie</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.126.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二维码登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendMail01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit126MailHomePage01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否运行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送一封带有附件的邮件给自己</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问126邮箱的首页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试结果</t>
+    <t>writemailpage.addattachementlink</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送成功</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -862,22 +848,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="21.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
-    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -893,8 +879,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -911,7 +900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -928,7 +917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -936,16 +925,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -953,16 +942,16 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -970,16 +959,16 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -987,16 +976,16 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1004,16 +993,16 @@
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1021,16 +1010,16 @@
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1038,16 +1027,16 @@
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1055,16 +1044,16 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1072,16 +1061,16 @@
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1089,50 +1078,50 @@
         <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="E15">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1140,191 +1129,163 @@
         <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E17">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E19">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="E24" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" t="s">
-        <v>94</v>
-      </c>
+    </row>
+    <row r="25" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
     <hyperlink ref="E10" r:id="rId2"/>
-    <hyperlink ref="E24" r:id="rId3"/>
+    <hyperlink ref="E22" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -1335,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1347,38 +1308,38 @@
   <sheetData>
     <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/KeyWordsFrameWork/src/cn/gloryroad/data/关键字驱动测试用例.xlsx
+++ b/KeyWordsFrameWork/src/cn/gloryroad/data/关键字驱动测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="17550" windowHeight="3435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="11805" windowHeight="4485"/>
   </bookViews>
   <sheets>
     <sheet name="发送邮件" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L11"/>
+  <oleSize ref="A20:D32"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
   <si>
     <t>测试用例序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -402,6 +402,10 @@
   </si>
   <si>
     <t>发送成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一行的后一行需有文字，否则会报错</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -850,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1275,6 +1279,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1296,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/KeyWordsFrameWork/src/cn/gloryroad/data/关键字驱动测试用例.xlsx
+++ b/KeyWordsFrameWork/src/cn/gloryroad/data/关键字驱动测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="11805" windowHeight="4485"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="14115" windowHeight="5175"/>
   </bookViews>
   <sheets>
     <sheet name="发送邮件" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A20:D32"/>
+  <oleSize ref="C1:I11"/>
 </workbook>
 </file>
 
@@ -854,17 +854,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="33.125" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -1303,14 +1303,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.25" customWidth="1"/>
-    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="1" max="1" width="23.25" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">

--- a/KeyWordsFrameWork/src/cn/gloryroad/data/关键字驱动测试用例.xlsx
+++ b/KeyWordsFrameWork/src/cn/gloryroad/data/关键字驱动测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="14115" windowHeight="5175"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="14265" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="发送邮件" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="C1:I11"/>
+  <oleSize ref="D1:I13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="105">
   <si>
     <t>测试用例序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>input_userName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>testform1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -120,10 +116,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>input_passWord</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>zwb888888</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -132,10 +124,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>click_login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -148,116 +136,264 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>单击“写信”链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待写信页面上显示出“收件人”链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaitFor_Element</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在收件人输入框中输入收信人的邮件地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>testform1@126.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用工具类函数，将“c:\\a.log”字符串粘贴到文件上传的文件名输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c:\a.log</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按Enter键，开始上传附件文件到邮件系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>press_enter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在邮件标题框中输入邮件标题“这是一封测试邮件”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestStep_15</t>
+  </si>
+  <si>
+    <t>单击添加附件按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestStep_16</t>
+  </si>
+  <si>
+    <t>TestStep_17</t>
+  </si>
+  <si>
+    <t>TestStep_18</t>
+  </si>
+  <si>
+    <t>TestStep_19</t>
+  </si>
+  <si>
+    <t>TestStep_20</t>
+  </si>
+  <si>
+    <t>TestStep_21</t>
+  </si>
+  <si>
+    <t>等待4秒，等待完成上传附件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击发送邮件按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click_sendMailButton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待3秒，等待邮件发送完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待发送完成页面上显示出ID属性包含“succinfo”关键字的页面元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaitFor_Element</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言发送结果页面是否包含“发送成功”关键字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assert_String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭浏览器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit126MailHomePage01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestStep_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开浏览器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问126邮箱首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言首页上的关键字是否包含“二维码登录”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭浏览器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_browser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>navigate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assert_String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close_browser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.126.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendMail01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit126MailHomePage01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否运行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送一封带有附件的邮件给自己</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问126邮箱的首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hi，你好吗？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作元素的定位表达式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.username</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.button</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>homepage.logoutlink</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>homepage.writeLetterLink</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>writemailpage.recipientslink</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>单击“写信”链接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待写信页面上显示出“收件人”链接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WaitFor_Element</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在收件人输入框中输入收信人的邮件地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>input_recipients</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>testform1@126.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用工具类函数，将“c:\\a.log”字符串粘贴到文件上传的文件名输入框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>paste_uploadFileName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c:\a.log</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按Enter键，开始上传附件文件到邮件系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>press_enter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在邮件标题框中输入邮件标题“这是一封测试邮件”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestStep_15</t>
-  </si>
-  <si>
-    <t>input_mailSubject</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单击添加附件按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestStep_16</t>
-  </si>
-  <si>
-    <t>TestStep_17</t>
-  </si>
-  <si>
-    <t>TestStep_18</t>
-  </si>
-  <si>
-    <t>TestStep_19</t>
-  </si>
-  <si>
-    <t>TestStep_20</t>
-  </si>
-  <si>
-    <t>TestStep_21</t>
-  </si>
-  <si>
-    <t>等待4秒，等待完成上传附件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sleep</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单击发送邮件按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>click_sendMailButton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待3秒，等待邮件发送完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待发送完成页面上显示出ID属性包含“succinfo”关键字的页面元素</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WaitFor_Element</t>
+    <t>writemailpage.recipients</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>writemailpage.mailsubject</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>writemailpage.addattachementlink</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>writemailpage.sendmailbuttons</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -265,148 +401,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>断言发送结果页面是否包含“发送成功”关键字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assert_String</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭浏览器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit126MailHomePage01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestStep_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开浏览器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问126邮箱首页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>断言首页上的关键字是否包含“二维码登录”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭浏览器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_browser</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>navigate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assert_String</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>close_browser</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ie</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.126.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二维码登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendMail01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit126MailHomePage01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否运行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送一封带有附件的邮件给自己</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问126邮箱的首页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>homepage.logoutlink</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hi，你好吗？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>click_writeLetterLink</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>homepage.writeLetterLink</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>click_addAttachment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>writemailpage.addattachementlink</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一行的后一行需有文字，否则会报错</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>input</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pasteString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤执行成功</t>
+  </si>
+  <si>
+    <t>测试执行成功</t>
   </si>
 </sst>
 </file>
@@ -852,22 +862,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="12" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="21.125" style="2" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="23.75" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -881,13 +892,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -900,11 +914,14 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -917,11 +934,14 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -932,13 +952,19 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -946,16 +972,22 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -963,16 +995,22 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -980,16 +1018,22 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -997,16 +1041,22 @@
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1014,16 +1064,22 @@
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1031,16 +1087,22 @@
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1048,16 +1110,22 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1065,16 +1133,22 @@
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1082,217 +1156,256 @@
         <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15">
+        <v>4000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17">
+        <v>3000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D19" t="s">
         <v>59</v>
       </c>
-      <c r="E15">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B21" t="s">
         <v>62</v>
       </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>67</v>
       </c>
-      <c r="E19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="F21" t="s">
         <v>71</v>
       </c>
-      <c r="D21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="G22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
         <v>73</v>
       </c>
-      <c r="D23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
         <v>74</v>
       </c>
-      <c r="D24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>101</v>
-      </c>
+      <c r="G24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C26" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E10" r:id="rId2"/>
-    <hyperlink ref="E22" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F10" r:id="rId2"/>
+    <hyperlink ref="F22" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -1303,50 +1416,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="27.875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/KeyWordsFrameWork/src/cn/gloryroad/data/关键字驱动测试用例.xlsx
+++ b/KeyWordsFrameWork/src/cn/gloryroad/data/关键字驱动测试用例.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="105">
   <si>
     <t>测试用例序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -423,6 +423,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -870,12 +871,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="21.125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.75" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -1422,10 +1423,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.25" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.25" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">

--- a/KeyWordsFrameWork/src/cn/gloryroad/data/关键字驱动测试用例.xlsx
+++ b/KeyWordsFrameWork/src/cn/gloryroad/data/关键字驱动测试用例.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="105">
   <si>
     <t>测试用例序号</t>
     <phoneticPr fontId="2" type="noConversion"/>

--- a/KeyWordsFrameWork/src/cn/gloryroad/data/关键字驱动测试用例.xlsx
+++ b/KeyWordsFrameWork/src/cn/gloryroad/data/关键字驱动测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="14265" windowHeight="6855"/>
+    <workbookView xWindow="0" yWindow="2730" windowWidth="13230" windowHeight="4410"/>
   </bookViews>
   <sheets>
     <sheet name="发送邮件" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="D1:I13"/>
+  <oleSize ref="B1:F10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="105">
   <si>
     <t>测试用例序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -66,61 +66,230 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>http://www.126.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestStep_03</t>
+  </si>
+  <si>
+    <t>TestStep_04</t>
+  </si>
+  <si>
+    <t>TestStep_05</t>
+  </si>
+  <si>
+    <t>TestStep_06</t>
+  </si>
+  <si>
+    <t>TestStep_07</t>
+  </si>
+  <si>
+    <t>TestStep_08</t>
+  </si>
+  <si>
+    <t>TestStep_09</t>
+  </si>
+  <si>
+    <t>TestStep_10</t>
+  </si>
+  <si>
+    <t>TestStep_13</t>
+  </si>
+  <si>
+    <t>TestStep_14</t>
+  </si>
+  <si>
+    <t>输入邮箱登录用户名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>testform1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入邮箱密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zwb888888</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击登录按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待页面出现登录成功后显示的退出链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaitFor_Element</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击“写信”链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待写信页面上显示出“收件人”链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaitFor_Element</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在收件人输入框中输入收信人的邮件地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>testform1@126.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用工具类函数，将“c:\\a.log”字符串粘贴到文件上传的文件名输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c:\a.log</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按Enter键，开始上传附件文件到邮件系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>press_enter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在邮件标题框中输入邮件标题“这是一封测试邮件”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestStep_15</t>
+  </si>
+  <si>
+    <t>单击添加附件按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestStep_16</t>
+  </si>
+  <si>
+    <t>TestStep_17</t>
+  </si>
+  <si>
+    <t>TestStep_18</t>
+  </si>
+  <si>
+    <t>TestStep_19</t>
+  </si>
+  <si>
+    <t>TestStep_20</t>
+  </si>
+  <si>
+    <t>TestStep_21</t>
+  </si>
+  <si>
+    <t>等待4秒，等待完成上传附件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击发送邮件按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click_sendMailButton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待3秒，等待邮件发送完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待发送完成页面上显示出ID属性包含“succinfo”关键字的页面元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaitFor_Element</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言发送结果页面是否包含“发送成功”关键字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assert_String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭浏览器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit126MailHomePage01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestStep_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开浏览器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问126邮箱首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言首页上的关键字是否包含“二维码登录”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭浏览器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_browser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>navigate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Assert_String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close_browser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>http://www.126.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TestStep_03</t>
-  </si>
-  <si>
-    <t>TestStep_04</t>
-  </si>
-  <si>
-    <t>TestStep_05</t>
-  </si>
-  <si>
-    <t>TestStep_06</t>
-  </si>
-  <si>
-    <t>TestStep_07</t>
-  </si>
-  <si>
-    <t>TestStep_08</t>
-  </si>
-  <si>
-    <t>TestStep_09</t>
-  </si>
-  <si>
-    <t>TestStep_10</t>
-  </si>
-  <si>
-    <t>TestStep_13</t>
-  </si>
-  <si>
-    <t>TestStep_14</t>
-  </si>
-  <si>
-    <t>输入邮箱登录用户名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>testform1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入邮箱密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zwb888888</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单击登录按钮</t>
+    <t>二维码登录</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -128,120 +297,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>等待页面出现登录成功后显示的退出链接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WaitFor_Element</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单击“写信”链接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待写信页面上显示出“收件人”链接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WaitFor_Element</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在收件人输入框中输入收信人的邮件地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>testform1@126.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用工具类函数，将“c:\\a.log”字符串粘贴到文件上传的文件名输入框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c:\a.log</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按Enter键，开始上传附件文件到邮件系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>press_enter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在邮件标题框中输入邮件标题“这是一封测试邮件”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestStep_15</t>
-  </si>
-  <si>
-    <t>单击添加附件按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestStep_16</t>
-  </si>
-  <si>
-    <t>TestStep_17</t>
-  </si>
-  <si>
-    <t>TestStep_18</t>
-  </si>
-  <si>
-    <t>TestStep_19</t>
-  </si>
-  <si>
-    <t>TestStep_20</t>
-  </si>
-  <si>
-    <t>TestStep_21</t>
-  </si>
-  <si>
-    <t>等待4秒，等待完成上传附件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sleep</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单击发送邮件按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>click_sendMailButton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待3秒，等待邮件发送完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待发送完成页面上显示出ID属性包含“succinfo”关键字的页面元素</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WaitFor_Element</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>断言发送结果页面是否包含“发送成功”关键字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assert_String</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭浏览器</t>
+    <t>SendMail01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -249,181 +305,124 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TestStep_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开浏览器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问126邮箱首页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>断言首页上的关键字是否包含“二维码登录”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭浏览器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_browser</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>测试用例序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否运行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送一封带有附件的邮件给自己</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问126邮箱的首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hi，你好吗？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作元素的定位表达式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.username</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.button</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>homepage.logoutlink</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>homepage.writeLetterLink</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>writemailpage.recipientslink</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>writemailpage.recipients</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>writemailpage.mailsubject</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>writemailpage.addattachementlink</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>writemailpage.sendmailbuttons</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendmailsuccesspage.succinfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pasteString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤执行成功</t>
+  </si>
+  <si>
+    <t>测试执行成功</t>
   </si>
   <si>
     <t>navigate</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assert_String</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>close_browser</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ie</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.126.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二维码登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendMail01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit126MailHomePage01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否运行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送一封带有附件的邮件给自己</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问126邮箱的首页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hi，你好吗？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作元素的定位表达式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>login.username</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>login.password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>login.button</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>homepage.logoutlink</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>homepage.writeLetterLink</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>writemailpage.recipientslink</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>writemailpage.recipients</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>writemailpage.mailsubject</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>writemailpage.addattachementlink</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>writemailpage.sendmailbuttons</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendmailsuccesspage.succinfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>input</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>click</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pasteString</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试步骤执行成功</t>
-  </si>
-  <si>
-    <t>测试执行成功</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -866,17 +865,17 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D13" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="21.125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.75" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="30.375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.125" collapsed="true"/>
+    <col min="1" max="1" width="25.625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -893,13 +892,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -919,7 +918,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -933,13 +932,13 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -947,22 +946,22 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -970,22 +969,22 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -993,22 +992,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -1016,22 +1015,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1039,22 +1038,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -1062,22 +1061,22 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -1085,22 +1084,22 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:7" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -1108,22 +1107,22 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1131,22 +1130,22 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:7" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1154,19 +1153,19 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1174,19 +1173,19 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>40</v>
       </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1194,19 +1193,19 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
         <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
       </c>
       <c r="F15">
         <v>4000</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1214,22 +1213,22 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
         <v>53</v>
       </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1237,19 +1236,19 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17">
         <v>3000</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:7" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1257,22 +1256,22 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
         <v>56</v>
       </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:7" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -1280,19 +1279,19 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
         <v>58</v>
       </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1300,99 +1299,99 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
         <v>61</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1417,58 +1416,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.25" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.625" collapsed="true"/>
+    <col min="1" max="1" width="23.25" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
-        <v>79</v>
-      </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
